--- a/src/main/resources/template/excel/export/goodsSaleProfitReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleProfitReport.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>单品ABC毛利分析</t>
   </si>
@@ -145,11 +145,26 @@
   <si>
     <t>${obj.grade}</t>
   </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +299,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -302,7 +326,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,7 +615,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +723,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
